--- a/Data/roteiro_entregas_caminhão2.xlsx
+++ b/Data/roteiro_entregas_caminhão2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>11072</t>
+          <t>11066</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -496,14 +496,14 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Bela Vista</t>
+          <t>Barra do Aririú</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>11072</t>
+          <t>11066</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -523,14 +523,14 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Bela Vista</t>
+          <t>Barra do Aririú</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>11073</t>
+          <t>11065</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -550,14 +550,14 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Bela Vista</t>
+          <t>Barra do Aririú</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>11066</t>
+          <t>11065</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>tarde</t>
+          <t>manhã</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -584,7 +584,7 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>11066</t>
+          <t>11104</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>tarde</t>
+          <t>manhã</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -604,24 +604,24 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Barra do Aririú</t>
+          <t>Caminho Novo</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>11074</t>
+          <t>11104</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>13/11/2024</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>manhã</t>
+          <t>tarde</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -631,24 +631,24 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Bela Vista</t>
+          <t>Caminho Novo</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>11074</t>
+          <t>11024</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>13/11/2024</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>manhã</t>
+          <t>tarde</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -658,19 +658,19 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Bela Vista</t>
+          <t>Agronômica</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>11057</t>
+          <t>11024</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>13/11/2024</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -685,32 +685,194 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Aririú</t>
+          <t>Agronômica</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>11057</t>
+          <t>11121</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>tarde</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>Canto</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>11103</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
           <t>14/11/2024</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>manhã</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Caminho Novo</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>11103</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>manhã</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Caminho Novo</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>11058</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>manhã</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Aririú</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>11058</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>tarde</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>Desconhecido</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Aririú</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>11060</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>tarde</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Aririú</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>11060</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>tarde</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>Aririú</t>
         </is>

--- a/Data/roteiro_entregas_caminhão2.xlsx
+++ b/Data/roteiro_entregas_caminhão2.xlsx
@@ -443,7 +443,7 @@
     <col width="17" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,12 +476,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>11066</t>
+          <t>11185</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -496,19 +496,19 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Barra do Aririú</t>
+          <t>Passa Vinte</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>11066</t>
+          <t>11185</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -523,19 +523,19 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Barra do Aririú</t>
+          <t>Passa Vinte</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>11065</t>
+          <t>11075</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -550,19 +550,19 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Barra do Aririú</t>
+          <t>Bela Vista</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>11065</t>
+          <t>11075</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -577,24 +577,24 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>Barra do Aririú</t>
+          <t>Bela Vista</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>11104</t>
+          <t>11073</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>manhã</t>
+          <t>tarde</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -604,19 +604,19 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Caminho Novo</t>
+          <t>Bela Vista</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>11104</t>
+          <t>11073</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -631,19 +631,19 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Caminho Novo</t>
+          <t>Bela Vista</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>11024</t>
+          <t>11204</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -658,19 +658,19 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Agronômica</t>
+          <t>Potecas</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>11024</t>
+          <t>11204</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -685,19 +685,19 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Agronômica</t>
+          <t>Potecas</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>11121</t>
+          <t>11083</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -712,19 +712,19 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Canto</t>
+          <t>Brejarú</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>11103</t>
+          <t>11057</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>21/11/2024</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -739,19 +739,19 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Caminho Novo</t>
+          <t>Aririú</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>11103</t>
+          <t>11057</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>21/11/2024</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -766,19 +766,19 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Caminho Novo</t>
+          <t>Aririú</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>11058</t>
+          <t>11214</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>21/11/2024</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -793,19 +793,19 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>Aririú</t>
+          <t>Rio Grande</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>11058</t>
+          <t>11181</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>21/11/2024</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -820,19 +820,19 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Aririú</t>
+          <t>Pachecos</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>11060</t>
+          <t>11181</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>21/11/2024</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -847,19 +847,19 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>Aririú</t>
+          <t>Pachecos</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>11060</t>
+          <t>11159</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>21/11/2024</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>Aririú</t>
+          <t>Furadinho</t>
         </is>
       </c>
     </row>

--- a/Data/roteiro_entregas_caminhão2.xlsx
+++ b/Data/roteiro_entregas_caminhão2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
     <col width="17" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,12 +476,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>11185</t>
+          <t>11081</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>19/11/2024</t>
+          <t>21/11/2024</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -496,19 +496,19 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Passa Vinte</t>
+          <t>Brejarú</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>11185</t>
+          <t>11081</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>19/11/2024</t>
+          <t>21/11/2024</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -523,19 +523,19 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Passa Vinte</t>
+          <t>Brejarú</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>11075</t>
+          <t>11191</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>19/11/2024</t>
+          <t>21/11/2024</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -550,19 +550,19 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Bela Vista</t>
+          <t>Pedra Branca</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>11075</t>
+          <t>11191</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>19/11/2024</t>
+          <t>21/11/2024</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -577,24 +577,24 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>Bela Vista</t>
+          <t>Pedra Branca</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>11073</t>
+          <t>11192</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>19/11/2024</t>
+          <t>21/11/2024</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>tarde</t>
+          <t>manhã</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -604,24 +604,24 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Bela Vista</t>
+          <t>Pedra Branca</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>11073</t>
+          <t>11192</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>19/11/2024</t>
+          <t>21/11/2024</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>tarde</t>
+          <t>manhã</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -631,24 +631,24 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Bela Vista</t>
+          <t>Pedra Branca</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>11204</t>
+          <t>11190</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>19/11/2024</t>
+          <t>21/11/2024</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>tarde</t>
+          <t>manhã</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -658,19 +658,19 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Potecas</t>
+          <t>Pedra Branca</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>11204</t>
+          <t>11184</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>19/11/2024</t>
+          <t>21/11/2024</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -685,19 +685,19 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Potecas</t>
+          <t>Pagani</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>11083</t>
+          <t>11184</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>19/11/2024</t>
+          <t>21/11/2024</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -712,14 +712,14 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Brejarú</t>
+          <t>Pagani</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>11057</t>
+          <t>11190</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>manhã</t>
+          <t>tarde</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -739,14 +739,14 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Aririú</t>
+          <t>Pedra Branca</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>11057</t>
+          <t>11195</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>manhã</t>
+          <t>tarde</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -766,14 +766,14 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Aririú</t>
+          <t>Pedra Branca</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>11214</t>
+          <t>11195</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>manhã</t>
+          <t>tarde</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -793,14 +793,14 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>Rio Grande</t>
+          <t>Pedra Branca</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>11181</t>
+          <t>11189</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -820,14 +820,14 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Pachecos</t>
+          <t>Pedra Branca</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>11181</t>
+          <t>11189</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -847,14 +847,14 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>Pachecos</t>
+          <t>Pedra Branca</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>11159</t>
+          <t>11220</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -874,7 +874,277 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>Furadinho</t>
+          <t>São Sebastião</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>11141</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>manhã</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Centro</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>11141</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>manhã</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>Centro</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>11145</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>manhã</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Centro</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>11145</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>manhã</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Centro</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>11214</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>manhã</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Rio Grande</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>11057</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>tarde</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>Aririú</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>11057</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>tarde</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Aririú</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>11214</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>tarde</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>Rio Grande</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>11208</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>tarde</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Praia de Fora</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>11208</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>tarde</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>Praia de Fora</t>
         </is>
       </c>
     </row>
